--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_21.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117397.2506240579</v>
+        <v>75961.18158256807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8191592.578713062</v>
+        <v>8191592.57871306</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>158.0064513239483</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>68.79719455169504</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.39834678541111</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>292.1380595743621</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>184.7135367856378</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1023,7 +1023,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.0354783084786</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>346.8766818975658</v>
       </c>
       <c r="H11" t="n">
-        <v>311.4936872159398</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>128.7835007017903</v>
+        <v>62.33263748886699</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>249.4237682275169</v>
+        <v>381.3266455745089</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>302.3551236970663</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>213.8524658611804</v>
       </c>
       <c r="U19" t="n">
-        <v>203.1609600883621</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>225.4603876057575</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>128.801431250095</v>
       </c>
       <c r="U22" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.2491677474086</v>
+        <v>15.67129869336531</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>328.0287908880682</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,19 +2792,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>292.1380595743621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>280.1033070984077</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>47.40419526769224</v>
+        <v>317.1002770370482</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>68.16471659739285</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.5294886147937</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>46.58646588932444</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>334.5817096732195</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>70.1192826460381</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,10 +3512,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>280.1033070984077</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.95117253761756</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>69.40414780104449</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>112.200859218067</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>334.5817096732201</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>290.0035889091394</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.66385641544514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>164.1944522398487</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2361.369127247596</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.607341885688</v>
+        <v>2572.628285839933</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.607341885688</v>
+        <v>2241.565398496362</v>
       </c>
       <c r="W2" t="n">
-        <v>2107.607341885688</v>
+        <v>1888.796743226248</v>
       </c>
       <c r="X2" t="n">
-        <v>2107.607341885688</v>
+        <v>1515.330984965168</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>1125.191652989356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2107.405821939171</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.7988452409105</v>
+        <v>2107.405821939171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4671,16 +4671,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>1578.81779408627</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>1193.029541488026</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>782.0436366984186</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>364.0798285966055</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4847,7 +4847,7 @@
         <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,46 +4884,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>773.5003462121382</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>138.3857151273827</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>138.3857151273827</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.586734013689</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.321035406938</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.532782808694</v>
+        <v>1142.504093339187</v>
       </c>
       <c r="F11" t="n">
-        <v>786.5468780190865</v>
+        <v>731.5181885495797</v>
       </c>
       <c r="G11" t="n">
-        <v>368.5830699172734</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5042,16 +5042,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5121,40 +5121,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5203,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>598.0446400632119</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T13" t="n">
-        <v>598.0446400632119</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.549250954101</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406939</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="F14" t="n">
-        <v>786.546878019087</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,34 +5294,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018223</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018223</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
         <v>2525.076107152626</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2310.5492509541</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C17" t="n">
-        <v>1941.586734013689</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D17" t="n">
-        <v>1583.321035406938</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="E17" t="n">
-        <v>1197.532782808694</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="F17" t="n">
-        <v>786.5468780190865</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>359.3521976759871</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5516,16 +5516,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5543,22 +5543,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>512.1163924274641</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5756,7 +5756,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.207670282225</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.144782938654</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>1931.37612766854</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="21">
@@ -5805,67 +5805,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>2334.714009270569</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931987</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="U22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5987,19 +5987,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8405610245969</v>
+        <v>2038.792683271916</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8405610245969</v>
+        <v>2038.792683271916</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7239216122612</v>
+        <v>2038.792683271916</v>
       </c>
       <c r="E25" t="n">
-        <v>215.810828029868</v>
+        <v>2038.792683271916</v>
       </c>
       <c r="F25" t="n">
-        <v>215.810828029868</v>
+        <v>2038.792683271916</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="V25" t="n">
-        <v>513.8405610245969</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="W25" t="n">
-        <v>513.8405610245969</v>
+        <v>2259.585262415446</v>
       </c>
       <c r="X25" t="n">
-        <v>513.8405610245969</v>
+        <v>2259.585262415446</v>
       </c>
       <c r="Y25" t="n">
-        <v>513.8405610245969</v>
+        <v>2038.792683271916</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>635.1915732143555</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>485.0749338020197</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>337.1618402196266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1133.649772640951</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>747.8615200427071</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>336.8756152530995</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
         <v>266.2060027641994</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6649,22 +6649,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>281.9325327183818</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1309.714918859356</v>
+        <v>1529.286147953399</v>
       </c>
       <c r="C32" t="n">
-        <v>940.7524019189439</v>
+        <v>1529.286147953399</v>
       </c>
       <c r="D32" t="n">
-        <v>582.4867033121934</v>
+        <v>1171.020449346649</v>
       </c>
       <c r="E32" t="n">
-        <v>582.4867033121934</v>
+        <v>785.2321967484045</v>
       </c>
       <c r="F32" t="n">
-        <v>582.4867033121934</v>
+        <v>374.2462919587969</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
         <v>1836.345445977174</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W32" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X32" t="n">
-        <v>1309.714918859356</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1309.714918859356</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641991</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
         <v>1194.968834417902</v>
@@ -6798,28 +6798,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>528.604248231895</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C34" t="n">
-        <v>528.604248231895</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D34" t="n">
-        <v>528.604248231895</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E34" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6865,43 +6865,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>528.604248231895</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>528.604248231895</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>528.604248231895</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>528.604248231895</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W34" t="n">
-        <v>528.604248231895</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X34" t="n">
-        <v>528.604248231895</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y34" t="n">
-        <v>528.604248231895</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.737983561872</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1188.678462110458</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>802.8902095122139</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>391.9043047226064</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2092.477155601806</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y35" t="n">
-        <v>1702.337823625994</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2547.032451605886</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2399.119358023493</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2399.119358023493</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2230.119557761825</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533504</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253591</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>1133.649772640951</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>747.8615200427071</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>336.8756152530995</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2610.856590904657</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>2279.793703561087</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W38" t="n">
-        <v>1927.025048290972</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X38" t="n">
-        <v>1553.559290029893</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y38" t="n">
-        <v>1553.559290029893</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7360,22 +7360,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>597.8010803716834</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
         <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>819.715945170047</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>433.9276925718028</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7464,73 +7464,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036378</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036378</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614623</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571342</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014716</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7558,16 +7558,16 @@
         <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7588,28 +7588,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>550.5654064942401</v>
+        <v>658.0237844073994</v>
       </c>
       <c r="S43" t="n">
-        <v>336.2769833124028</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="T43" t="n">
-        <v>336.2769833124028</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="U43" t="n">
-        <v>336.2769833124028</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V43" t="n">
-        <v>222.942782082032</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W43" t="n">
-        <v>222.942782082032</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X43" t="n">
-        <v>222.942782082032</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y43" t="n">
         <v>222.942782082032</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>757.8618047000118</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>346.8758999104043</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,13 +7646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="45">
@@ -7725,10 +7725,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
         <v>670.8219208598713</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2636.88256938646</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C46" t="n">
-        <v>2636.88256938646</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D46" t="n">
-        <v>2486.765929974124</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E46" t="n">
-        <v>2338.852836391731</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F46" t="n">
-        <v>2191.96288889382</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627455</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>58.44186903370945</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>182.4269729565943</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -22723,10 +22723,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>96.56727500692712</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.8578157762263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22784,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>62.54498204632085</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>222.1625089560736</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,25 +22984,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,10 +23021,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,10 +23033,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>16.88729445587859</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23194,7 +23194,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>72.57258286784712</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -23224,22 +23224,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>66.90748812322914</v>
       </c>
       <c r="H11" t="n">
-        <v>12.42908554841733</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>83.36203824822857</v>
+        <v>149.8129014611519</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23473,10 +23473,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>164.3604017932781</v>
+        <v>32.45752444628613</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23552,16 +23552,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199112</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23674,7 +23674,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>21.5676490672908</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23783,22 +23783,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23938,16 +23938,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>11.1826395969039</v>
       </c>
       <c r="U19" t="n">
-        <v>83.12091415361562</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,16 +24023,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>170.102160979652</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,16 +24172,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>96.23367420798931</v>
       </c>
       <c r="U22" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24367,16 +24367,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>7.060634511642348</v>
+        <v>151.6385035656856</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24409,10 +24409,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,16 +24500,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>41.70230979040082</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>75.23878421646987</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24619,7 +24619,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24655,13 +24655,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,19 +24680,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>89.79231049789968</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>133.6808629223873</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24889,19 +24889,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>69.58249272689014</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>366.3799747531028</v>
+        <v>96.68389298374683</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24965,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>99.08210450123498</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,13 +25090,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>14.6160503352252</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25132,7 +25132,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>318.6864258816831</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>79.20246034757548</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25315,22 +25315,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>86.05160619575705</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25366,13 +25366,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>133.6808629223873</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25445,19 +25445,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>220.2729949706717</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25600,10 +25600,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>96.01048066168096</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>85.16958467259929</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25828,10 +25828,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>77.26104417911337</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>139.936784105761</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>123.7805811116556</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.1681237664922</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165457</v>
       </c>
       <c r="F2" t="n">
         <v>303610.2405165455</v>
@@ -26329,25 +26329,25 @@
         <v>303610.2405165454</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="I2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="J2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="K2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="K2" t="n">
-        <v>303610.2405165455</v>
-      </c>
       <c r="L2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="M2" t="n">
         <v>303610.2405165455</v>
       </c>
       <c r="N2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="O2" t="n">
         <v>303610.2405165454</v>
@@ -26418,7 +26418,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
@@ -26454,7 +26454,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26479,7 +26479,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26519,16 +26519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369729.8252604681</v>
+        <v>-369729.8252604679</v>
       </c>
       <c r="C6" t="n">
-        <v>220238.0539540762</v>
+        <v>220238.0539540763</v>
       </c>
       <c r="D6" t="n">
-        <v>220238.0539540762</v>
+        <v>220238.0539540765</v>
       </c>
       <c r="E6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540765</v>
       </c>
       <c r="F6" t="n">
         <v>253865.6539540763</v>
@@ -26537,28 +26537,28 @@
         <v>253865.6539540762</v>
       </c>
       <c r="H6" t="n">
-        <v>253865.6539540761</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="I6" t="n">
-        <v>253865.6539540762</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="J6" t="n">
-        <v>77442.43476148331</v>
+        <v>77442.43476148337</v>
       </c>
       <c r="K6" t="n">
         <v>253865.6539540763</v>
       </c>
       <c r="L6" t="n">
-        <v>253865.6539540764</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="M6" t="n">
-        <v>253865.6539540764</v>
+        <v>253865.6539540763</v>
       </c>
       <c r="N6" t="n">
         <v>253865.6539540762</v>
       </c>
       <c r="O6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="P6" t="n">
         <v>253865.6539540763</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26765,7 +26765,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26799,7 +26799,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26814,19 +26814,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>115.481539230439</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31604,10 +31604,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
-        <v>160.6967431133295</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32017,16 +32017,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32476,7 +32476,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405367</v>
@@ -32570,7 +32570,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32786,10 +32786,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32807,7 +32807,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33026,7 +33026,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33187,7 +33187,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630663</v>
       </c>
       <c r="M29" t="n">
         <v>266.6471645405367</v>
@@ -33260,10 +33260,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
-        <v>87.78329382423996</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
         <v>193.1674799081577</v>
@@ -33430,25 +33430,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649101</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M34" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33752,10 +33752,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33904,7 +33904,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338297</v>
       </c>
       <c r="O38" t="n">
         <v>255.8615389119866</v>
@@ -34211,7 +34211,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34445,13 +34445,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M45" t="n">
         <v>205.8702969983122</v>
@@ -35015,10 +35015,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686586</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>392.9827086369145</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,13 +35735,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -36124,7 +36124,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060965</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435295</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060965</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N34" t="n">
         <v>148.370846145888</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37400,10 +37400,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492235</v>
+        <v>478.895655249223</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,7 +37871,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
